--- a/Study 2/results/posrecip_sem_results.xlsx
+++ b/Study 2/results/posrecip_sem_results.xlsx
@@ -467,22 +467,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.111066073008296</v>
+        <v>-0.111066096513645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11794390605403</v>
+        <v>0.117943905533383</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.941685558195917</v>
+        <v>-0.94168576164547</v>
       </c>
       <c r="E2" t="n">
-        <v>0.346353651082396</v>
+        <v>0.346353546889831</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.342231881070169</v>
+        <v>-0.342231903555069</v>
       </c>
       <c r="G2" t="n">
-        <v>0.120099735053578</v>
+        <v>0.120099710527779</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0827728079577004</v>
+        <v>-0.0827728764260984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118270914588251</v>
+        <v>0.118270915000345</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.699857680528356</v>
+        <v>-0.699858257001365</v>
       </c>
       <c r="E3" t="n">
-        <v>0.48401618850288</v>
+        <v>0.484015828455159</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.314579540969284</v>
+        <v>-0.314579610245373</v>
       </c>
       <c r="G3" t="n">
-        <v>0.149033925053884</v>
+        <v>0.149033857393177</v>
       </c>
     </row>
     <row r="4">
@@ -513,22 +513,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0531265287019058</v>
+        <v>-0.0531265923714975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.118510567248882</v>
+        <v>0.118510567603874</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.448285160852666</v>
+        <v>-0.448285696758072</v>
       </c>
       <c r="E4" t="n">
-        <v>0.653947408676416</v>
+        <v>0.65394702196203</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.285402972297127</v>
+        <v>-0.285403036662491</v>
       </c>
       <c r="G4" t="n">
-        <v>0.179149914893315</v>
+        <v>0.179149851919496</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0839455565752134</v>
+        <v>-0.0839456260136911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119946610447768</v>
+        <v>0.119946610865702</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.699857680528356</v>
+        <v>-0.699858257001365</v>
       </c>
       <c r="E5" t="n">
-        <v>0.48401618850288</v>
+        <v>0.484015828455159</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.319036593120495</v>
+        <v>-0.319036663378107</v>
       </c>
       <c r="G5" t="n">
-        <v>0.151145479970068</v>
+        <v>0.151145411350725</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0523629979555717</v>
+        <v>-0.0523630607101085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.116807341683972</v>
+        <v>0.116807342033862</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.448285160852666</v>
+        <v>-0.448285696758072</v>
       </c>
       <c r="E6" t="n">
-        <v>0.653947408676416</v>
+        <v>0.65394702196203</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.281301180786021</v>
+        <v>-0.28130124422633</v>
       </c>
       <c r="G6" t="n">
-        <v>0.176575184874877</v>
+        <v>0.176575122806113</v>
       </c>
     </row>
     <row r="7">
@@ -585,19 +585,19 @@
         <v>-0.0618993651740157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.119098920652457</v>
+        <v>0.119098921122046</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.519730698103004</v>
+        <v>-0.519730696053785</v>
       </c>
       <c r="E7" t="n">
-        <v>0.603251287624255</v>
+        <v>0.60325128905273</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.295328960250425</v>
+        <v>-0.295328961170802</v>
       </c>
       <c r="G7" t="n">
-        <v>0.171530229902393</v>
+        <v>0.171530230822771</v>
       </c>
     </row>
     <row r="8">
@@ -608,19 +608,19 @@
         <v>0.0264857409297097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115981837810262</v>
+        <v>0.11598183821086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228361107478211</v>
+        <v>0.228361106689459</v>
       </c>
       <c r="E8" t="n">
-        <v>0.819365522384229</v>
+        <v>0.819365522997365</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.20083448403917</v>
+        <v>-0.200834484824327</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25380596589859</v>
+        <v>0.253805966683747</v>
       </c>
     </row>
     <row r="9">
@@ -628,22 +628,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.941721376545118</v>
+        <v>0.941721384126248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161363039305342</v>
+        <v>0.161363040549479</v>
       </c>
       <c r="D9" t="n">
-        <v>5.83604139212529</v>
+        <v>5.83604139411024</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000000534556221509774</v>
+        <v>0.00000000534556199305314</v>
       </c>
       <c r="F9" t="n">
-        <v>0.625455631070726</v>
+        <v>0.625455636213393</v>
       </c>
       <c r="G9" t="n">
-        <v>1.25798712201951</v>
+        <v>1.2579871320391</v>
       </c>
     </row>
     <row r="10">
@@ -654,19 +654,19 @@
         <v>-0.0883851061037254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0333013045216767</v>
+        <v>0.0333013043899421</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.65410341646506</v>
+        <v>-2.65410342696426</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00795194517660613</v>
+        <v>0.00795194492917517</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.153654463604413</v>
+        <v>-0.153654463346218</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0231157486030382</v>
+        <v>-0.0231157488612333</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0315825586196418</v>
+        <v>-0.0315825653035826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0335383274590715</v>
+        <v>0.0335383273110212</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.941685558356586</v>
+        <v>-0.941685761806138</v>
       </c>
       <c r="E11" t="n">
-        <v>0.346353651000113</v>
+        <v>0.346353546807548</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0973164725411326</v>
+        <v>-0.0973164789349003</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0341513553018491</v>
+        <v>0.034151348327735</v>
       </c>
     </row>
     <row r="12">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0296462792557946</v>
+        <v>-0.0296462840546009</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0333987441745833</v>
+        <v>0.0333987440190458</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.887646526492922</v>
+        <v>-0.887646674308919</v>
       </c>
       <c r="E12" t="n">
-        <v>0.374730918212137</v>
+        <v>0.374730838675429</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0951066149668448</v>
+        <v>-0.0951066194608031</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0358140564552556</v>
+        <v>0.0358140513516014</v>
       </c>
     </row>
     <row r="13">
@@ -720,22 +720,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0317326440177932</v>
+        <v>-0.0317326510219912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0337554237066304</v>
+        <v>0.0337554239352979</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.94007541702284</v>
+        <v>-0.940075618152984</v>
       </c>
       <c r="E13" t="n">
-        <v>0.347178877445529</v>
+        <v>0.347178774284636</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0978920587656782</v>
+        <v>-0.0978920662180564</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0344267707300918</v>
+        <v>0.0344267641740739</v>
       </c>
     </row>
     <row r="14">
@@ -743,22 +743,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0297860282366129</v>
+        <v>-0.0297860333275442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.033561143918213</v>
+        <v>0.0335611440720624</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.887515285807903</v>
+        <v>-0.887515433430627</v>
       </c>
       <c r="E14" t="n">
-        <v>0.374801540207313</v>
+        <v>0.374801460765348</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0955646615962758</v>
+        <v>-0.0955646669887463</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0359926051230499</v>
+        <v>0.035992600333658</v>
       </c>
     </row>
     <row r="15">
@@ -766,22 +766,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.79854166244647</v>
+        <v>-2.79854107018024</v>
       </c>
       <c r="C15" t="n">
-        <v>3.15335600074385</v>
+        <v>3.15335472688905</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.887480405569913</v>
+        <v>-0.887480576262711</v>
       </c>
       <c r="E15" t="n">
-        <v>0.37482031101455</v>
+        <v>0.374820219154771</v>
       </c>
       <c r="F15" t="n">
-        <v>-8.97900585433768</v>
+        <v>-8.97900276536192</v>
       </c>
       <c r="G15" t="n">
-        <v>3.38192252944473</v>
+        <v>3.38192062500144</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.136308554530785</v>
+        <v>-0.1363086867238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234387434496002</v>
+        <v>0.234387435293674</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.581552312409093</v>
+        <v>-0.581552874423547</v>
       </c>
       <c r="E16" t="n">
-        <v>0.560868272100413</v>
+        <v>0.560867893442003</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.595699484571691</v>
+        <v>-0.595699618328114</v>
       </c>
       <c r="G16" t="n">
-        <v>0.32308237551012</v>
+        <v>0.323082244880515</v>
       </c>
     </row>
     <row r="17">
@@ -812,22 +812,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0681542772653925</v>
+        <v>-0.0681543433618998</v>
       </c>
       <c r="C17" t="n">
-        <v>0.117193717248001</v>
+        <v>0.117193717646837</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.581552312409093</v>
+        <v>-0.581552874423547</v>
       </c>
       <c r="E17" t="n">
-        <v>0.560868272100413</v>
+        <v>0.560867893442003</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.297849742285845</v>
+        <v>-0.297849809164057</v>
       </c>
       <c r="G17" t="n">
-        <v>0.16154118775506</v>
+        <v>0.161541122440257</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0365717186457508</v>
+        <v>-0.0365717780583171</v>
       </c>
       <c r="C18" t="n">
-        <v>0.118810573959239</v>
+        <v>0.118810574232917</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.30781535200981</v>
+        <v>-0.307815851362032</v>
       </c>
       <c r="E18" t="n">
-        <v>0.758222839201672</v>
+        <v>0.7582224592116</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.269436164588392</v>
+        <v>-0.269436224537356</v>
       </c>
       <c r="G18" t="n">
-        <v>0.19629272729689</v>
+        <v>0.196292668420722</v>
       </c>
     </row>
     <row r="19">
@@ -858,22 +858,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0315825586196418</v>
+        <v>0.0315825653035826</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0335383274590715</v>
+        <v>0.0335383273110212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.941685558356586</v>
+        <v>0.941685761806138</v>
       </c>
       <c r="E19" t="n">
-        <v>0.346353651000113</v>
+        <v>0.346353546807548</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0341513553018491</v>
+        <v>-0.034151348327735</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0973164725411326</v>
+        <v>0.0973164789349003</v>
       </c>
     </row>
     <row r="20">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0315825586196418</v>
+        <v>0.0315825653035826</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0335383274590715</v>
+        <v>0.0335383273110212</v>
       </c>
       <c r="D20" t="n">
-        <v>0.941685558356586</v>
+        <v>0.941685761806138</v>
       </c>
       <c r="E20" t="n">
-        <v>0.173176825500057</v>
+        <v>0.173176773403774</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0341513553018491</v>
+        <v>-0.034151348327735</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0973164725411326</v>
+        <v>0.0973164789349003</v>
       </c>
     </row>
     <row r="21">
@@ -904,22 +904,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.136308554530785</v>
+        <v>0.1363086867238</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234387434496002</v>
+        <v>0.234387435293674</v>
       </c>
       <c r="D21" t="n">
-        <v>0.581552312409093</v>
+        <v>0.581552874423547</v>
       </c>
       <c r="E21" t="n">
-        <v>0.280434136050207</v>
+        <v>0.280433946721002</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.32308237551012</v>
+        <v>-0.323082244880515</v>
       </c>
       <c r="G21" t="n">
-        <v>0.595699484571691</v>
+        <v>0.595699618328114</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.104725995911143</v>
+        <v>-0.104726121420217</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233614683367944</v>
+        <v>0.233614684067725</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.448285160852666</v>
+        <v>-0.448285696758072</v>
       </c>
       <c r="E22" t="n">
-        <v>0.673026295661792</v>
+        <v>0.673026489018985</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.562602361572041</v>
+        <v>-0.56260248845266</v>
       </c>
       <c r="G22" t="n">
-        <v>0.353150369749755</v>
+        <v>0.353150245612227</v>
       </c>
     </row>
     <row r="23">
@@ -950,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0297860282366129</v>
+        <v>0.0297860333275442</v>
       </c>
       <c r="C23" t="n">
-        <v>0.033561143918213</v>
+        <v>0.0335611440720624</v>
       </c>
       <c r="D23" t="n">
-        <v>0.887515285807903</v>
+        <v>0.887515433430627</v>
       </c>
       <c r="E23" t="n">
-        <v>0.812599229896343</v>
+        <v>0.812599269617326</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -969,16 +969,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0317326440177932</v>
+        <v>0.0317326510219912</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0337554237066304</v>
+        <v>0.0337554239352979</v>
       </c>
       <c r="D24" t="n">
-        <v>0.94007541702284</v>
+        <v>0.940075618152984</v>
       </c>
       <c r="E24" t="n">
-        <v>0.826410561277235</v>
+        <v>0.826410612857682</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -988,16 +988,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>2.79854166244647</v>
+        <v>2.79854107018024</v>
       </c>
       <c r="C25" t="n">
-        <v>3.15335600074385</v>
+        <v>3.15335472688905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.887480405569913</v>
+        <v>0.887480576262711</v>
       </c>
       <c r="E25" t="n">
-        <v>0.812589844492725</v>
+        <v>0.812589890422615</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1007,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>2.79854166244647</v>
+        <v>2.79854107018024</v>
       </c>
       <c r="C26" t="n">
-        <v>3.15335600074385</v>
+        <v>3.15335472688905</v>
       </c>
       <c r="D26" t="n">
-        <v>0.887480405569913</v>
+        <v>0.887480576262711</v>
       </c>
       <c r="E26" t="n">
-        <v>0.187410155507275</v>
+        <v>0.187410109577385</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
